--- a/biology/Zoologie/Cercopithecidae/Cercopithecidae.xlsx
+++ b/biology/Zoologie/Cercopithecidae/Cercopithecidae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,13 +490,15 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cercopithécidés
 Les Cercopithécidés (Cercopithecidae) constituent une famille de primates catarhiniens à queue non-préhensile de l'Ancien Monde. Cette famille comprend notamment les cercopithèques, les cynocéphales et les macaques.
 Le magot Macaca sylvanus est le seul macaque dépourvu de queue, mais aussi le seul primate, à part Homo sapiens, présent sur le continent européen. Son aire de répartition comprend l'Afrique du Nord et Gibraltar.
 On a découvert qu'une espèce de macaques était porteuse du facteur rhésus, ce qui lui a valu son nom de « macaque rhésus ». Ainsi, le macaque rhésus est devenu un animal de laboratoire fréquemment utilisé de par la similitude entre son patrimoine génétique et celui de l'Homme.
-Les Cercopithecidae sont apparus au Miocène ancien (il y a environ 26 Ma)[1] et constituent actuellement le groupe des catarrhiniens le plus diversifié taxonomiquement. Ils se distinguent des Hominoïdés notamment par leurs molaires très spécialisées, appelées bilophodontes.
+Les Cercopithecidae sont apparus au Miocène ancien (il y a environ 26 Ma) et constituent actuellement le groupe des catarrhiniens le plus diversifié taxonomiquement. Ils se distinguent des Hominoïdés notamment par leurs molaires très spécialisées, appelées bilophodontes.
 </t>
         </is>
       </c>
@@ -515,11 +527,48 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Cette famille étant  très diversifiée, sa classification diffère souvent selon les auteurs.
-Genres actuels
-Liste des genres actuels selon ITIS[2]:
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette famille étant  très diversifiée, sa classification diffère souvent selon les auteurs.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Cercopithecidae</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cercopithecidae</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Classification</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Genres actuels</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Liste des genres actuels selon ITIS:
 sous-famille Cercopithecinae Gray, 1821:
 tribu Cercopithecini Gray 1825:
 genre Allenopithecus Lang, 1923
@@ -556,36 +605,76 @@
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
         <is>
           <t>Cercopithecidae</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="C5" t="inlineStr">
         <is>
           <t>Portail:Zoologie/Articles liés</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="D5" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Cercopithecidae</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>Phylogénie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Au sein des singes
-Phylogénie des familles de singes, d'après Perelman et al. (2011)[3] et Springer et al. (2012)[4] :
-De la famille
-Phylogénie des genres actuels de singes de la famille des cercopithécidés, d'après Springer et al., 2012[5] :
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Au sein des singes</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Phylogénie des familles de singes, d'après Perelman et al. (2011) et Springer et al. (2012) :
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Cercopithecidae</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cercopithecidae</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Phylogénie</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>De la famille</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Phylogénie des genres actuels de singes de la famille des cercopithécidés, d'après Springer et al., 2012 :
 </t>
         </is>
       </c>
